--- a/biology/Zoologie/Bachaur/Bachaur.xlsx
+++ b/biology/Zoologie/Bachaur/Bachaur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bachaur ou sitamarhi est une race bovine indienne.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race très proche de l'hariana. Il pourrait s'agir d'une influence génétique d'hariana sur du bétail local hétérogène[1] ou être une hariana « polluée » par des croisements anarchiques[2]. C'est une population locale assez homogène qui ne dispose pas de livre généalogique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race très proche de l'hariana. Il pourrait s'agir d'une influence génétique d'hariana sur du bétail local hétérogène ou être une hariana « polluée » par des croisements anarchiques. C'est une population locale assez homogène qui ne dispose pas de livre généalogique.
 Elle est élevée dans l'État de Bihar au nord-est de l'Inde.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette race porte une robe gris clair à blanche et porte des cornes courtes. Elle est petite (110 cm pour les vaches et 118 cm pour les taureaux) et légère avec une masse moyenne de 240 à 270 kg.
 </t>
@@ -575,10 +591,12 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une bonne race de travail, compte tenu de sa taille. Elle est capable de porter 600 kg[2]. 
-En revanche, la vache est piètre laitière, son lait étant juste suffisant au veau : elle produit environ 2 kg de lait par jour à 5 % de matière grasse, donnant une production moyenne de 340 kg sur une durée de lactation de 180 jours[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une bonne race de travail, compte tenu de sa taille. Elle est capable de porter 600 kg. 
+En revanche, la vache est piètre laitière, son lait étant juste suffisant au veau : elle produit environ 2 kg de lait par jour à 5 % de matière grasse, donnant une production moyenne de 340 kg sur une durée de lactation de 180 jours.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c « bachaur », Site « dad.fao.org » de la FAO (consulté le 18 novembre 2014)
